--- a/biology/Botanique/Lepidium_draba/Lepidium_draba.xlsx
+++ b/biology/Botanique/Lepidium_draba/Lepidium_draba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passerage drave
 Lepidium draba, la Passerage drave (appelé aussi Pain blanc ou Brocoli sauvage), est une espèce de plante herbacée vivace de la famille des Brassicacées.
@@ -512,10 +524,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cardaria brachysepala Opiz
-Cardaria draba (L.) Desv[1]. subsp. draba</t>
+Cardaria draba (L.) Desv. subsp. draba</t>
         </is>
       </c>
     </row>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L. draba est une petite plante vivace de 30 à 60 cm de hauteur, couverte de courts poils blanchâtres. La tige est rameuse supérieurement, à rameaux les uns nus, les autres feuillés. Les feuilles alternes sont oblongues, larges parfois de plus de 2 cm, embrassant la tige par 2 lobes aigus, irrégulièrement sinuées et dentées[2].
-Elle forme souvent d'importantes colonies[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L. draba est une petite plante vivace de 30 à 60 cm de hauteur, couverte de courts poils blanchâtres. La tige est rameuse supérieurement, à rameaux les uns nus, les autres feuillés. Les feuilles alternes sont oblongues, larges parfois de plus de 2 cm, embrassant la tige par 2 lobes aigus, irrégulièrement sinuées et dentées.
+Elle forme souvent d'importantes colonies.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lepidum draba pousse aux abords des chemins, dans les sous-bois et dans les champs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lepidum draba pousse aux abords des chemins, dans les sous-bois et dans les champs.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles peuvent être ajoutées aux salades. Les jeunes pousses ou les boutons floraux, cueillis au printemps[3], sont consommés crus, cuits à la vapeur ou poêles à la manière du brocoli[3]. Les fleurs peuvent accompagner les salades[3] ou se préparer en infusion. Les graines peuvent être utilisées pour composer une moutarde ou être employées comme du poivre[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles peuvent être ajoutées aux salades. Les jeunes pousses ou les boutons floraux, cueillis au printemps, sont consommés crus, cuits à la vapeur ou poêles à la manière du brocoli. Les fleurs peuvent accompagner les salades ou se préparer en infusion. Les graines peuvent être utilisées pour composer une moutarde ou être employées comme du poivre.
 </t>
         </is>
       </c>
